--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6837372443124597</v>
+        <v>0.6827182936900972</v>
       </c>
       <c r="D2">
-        <v>0.4942354484616212</v>
+        <v>0.5019112995627282</v>
       </c>
       <c r="E2">
         <v>3.684591419506685</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.6176621112971016</v>
+        <v>-0.6034871086408529</v>
       </c>
       <c r="D3">
-        <v>0.5368818541723654</v>
+        <v>0.5523566792176868</v>
       </c>
       <c r="E3">
         <v>3.684591419506685</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.2571522615036889</v>
+        <v>-0.2095395701032416</v>
       </c>
       <c r="D4">
-        <v>0.7970927438541731</v>
+        <v>0.8359552927625062</v>
       </c>
       <c r="E4">
         <v>3.684591419506685</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.5633829720491262</v>
+        <v>0.49460756977287</v>
       </c>
       <c r="D5">
-        <v>0.573249358783674</v>
+        <v>0.6257803174281276</v>
       </c>
       <c r="E5">
         <v>3.684591419506685</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.244356134085852</v>
+        <v>-1.330260272875008</v>
       </c>
       <c r="D6">
-        <v>0.2135421960950779</v>
+        <v>0.1970588732705119</v>
       </c>
       <c r="E6">
         <v>3.163040499212141</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.8264656590002614</v>
+        <v>-0.69909142913724</v>
       </c>
       <c r="D7">
-        <v>0.4086574190106917</v>
+        <v>0.4918204365806202</v>
       </c>
       <c r="E7">
         <v>3.163040499212141</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.002637847576474075</v>
+        <v>-0.002822321873415189</v>
       </c>
       <c r="D8">
-        <v>0.9978956179491758</v>
+        <v>0.9977735521300291</v>
       </c>
       <c r="E8">
         <v>3.163040499212141</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3982153959683681</v>
+        <v>0.3814525067794956</v>
       </c>
       <c r="D9">
-        <v>0.6905220472526734</v>
+        <v>0.7065267412498839</v>
       </c>
       <c r="E9">
         <v>4.36130156353335</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.565352273935619</v>
+        <v>1.972141351171651</v>
       </c>
       <c r="D10">
-        <v>0.1176887749192526</v>
+        <v>0.06129442439186739</v>
       </c>
       <c r="E10">
         <v>4.36130156353335</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6395761779488084</v>
+        <v>0.5211460389418854</v>
       </c>
       <c r="D11">
-        <v>0.5225354265221358</v>
+        <v>0.6074716359589756</v>
       </c>
       <c r="E11">
         <v>3.867895113412157</v>
